--- a/ADtests/Resources/Extra files/Questionnaires/RF QRY [GLOBAL].xlsx
+++ b/ADtests/Resources/Extra files/Questionnaires/RF QRY [GLOBAL].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="162">
   <si>
     <t>#</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Description of additional information (Email)</t>
+  </si>
+  <si>
+    <t>YES+</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="I39" t="s">
         <v>85</v>
